--- a/output/bi.item_flow.json/game.xlsx
+++ b/output/bi.item_flow.json/game.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -425,343 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="11"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
-    <col customWidth="1" max="4" min="4" width="22"/>
-    <col customWidth="1" max="5" min="5" width="21"/>
-    <col customWidth="1" max="6" min="6" width="16"/>
-    <col customWidth="1" max="7" min="7" width="18"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="31"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="15" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>event_ts</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>log_source</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>properties.role_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>properties.game_uid</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>detail.item_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>detail.item_info</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>detail.action</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>detail.amount</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>detail.operation_detail</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1733108017676</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hMb8OlebPX2f0"}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1733108017696</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hMb8OlebPX2f8"}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1733108017724</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hMb8OlebPX2gL"}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1733108017735</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hMb8OlebPX2gW"}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1733108122271</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hmr8OlebPX2hk"}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>item_flow</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1733108128831</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>lgz111122</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32906</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{"opNUID":"Z00hoL8OlebPX2jT"}</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>